--- a/imageCreationExcel/back/0901-1/0901-1_17.xlsx
+++ b/imageCreationExcel/back/0901-1/0901-1_17.xlsx
@@ -486,39 +486,41 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7338157787982706</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>0.5267058865159435</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
       <c r="F2" t="n">
-        <v>0.9224587064713796</v>
+        <v>0.8402106395388425</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>0.6778117620851344</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_2_gamma0.53_contrast0.92_sharpness0.68.jpg</t>
+          <t>1_S_sharpness0.73_gamma0.84.jpg</t>
         </is>
       </c>
     </row>
@@ -528,16 +530,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.6810115185002066</v>
+        <v>15.12200716581623</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,7 +547,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.8420491030451555</v>
+        <v>1.026076701920015</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -562,7 +564,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_9_gamma0.68_contrast0.84.jpg</t>
+          <t>2_3_brightness15.0_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -572,7 +574,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -581,30 +583,32 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.008357709517484</v>
+        <v>0.917525910717768</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>17.79513729151767</v>
+        <v>23.37581243477324</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>0.9494950150474653</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_0_gamma1.0_brightness18.0_sharpness0.95.jpg</t>
+          <t>3_E_gamma0.92_equalization23.0.jpg</t>
         </is>
       </c>
     </row>
@@ -614,24 +618,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.100231871039808</v>
+        <v>0.3939293262404134</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.5563920456370566</v>
+        <v>21.80267310889347</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -648,7 +652,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_J_contrast1.1_gamma0.56.jpg</t>
+          <t>4_C_sharpness0.39_equalization22.0.jpg</t>
         </is>
       </c>
     </row>
@@ -658,7 +662,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -667,30 +671,32 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>18.83151487259344</v>
+        <v>16.18259099688213</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.077419423867604</v>
+        <v>0.3358337909634945</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>0.9654378489517763</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_7_brightness19.0_contrast1.1_gamma0.97.jpg</t>
+          <t>5_Q_brightness16.0_sharpness0.34.jpg</t>
         </is>
       </c>
     </row>
@@ -700,16 +706,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.5060386145042902</v>
+        <v>1.085631496012256</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -717,7 +723,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.4226971689771553</v>
+        <v>0.2963583968809727</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -734,7 +740,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_J_gamma0.51_sharpness0.42.jpg</t>
+          <t>6_3_brightness1.1_sharpness0.3.jpg</t>
         </is>
       </c>
     </row>
@@ -744,41 +750,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5615672156210868</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>0.7137916928014043</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
       <c r="F8" t="n">
-        <v>0.2610836788372303</v>
+        <v>10.99242461070804</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1.186069293465846</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_S_brightness0.71_sharpness0.26.jpg</t>
+          <t>7_J_sharpness0.56_brightness11.0_contrast1.2.jpg</t>
         </is>
       </c>
     </row>
@@ -788,39 +792,41 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.8675969361091147</v>
+        <v>0.5384107598709893</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>20.7306055694386</v>
+        <v>7.026012246674808</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>0.5616150905061594</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_8_contrast0.87_brightness21.0_gamma0.56.jpg</t>
+          <t>8_9_gamma0.54_equalization7.0.jpg</t>
         </is>
       </c>
     </row>
@@ -830,7 +836,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -839,15 +845,15 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.058462831523777</v>
+        <v>1.146877486366279</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>13.92800766729312</v>
+        <v>19.9313375251422</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -860,11 +866,11 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_9_contrast1.1_equalization14.0.jpg</t>
+          <t>9_0_contrast1.1_brightness20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -874,41 +880,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.6386333234020352</v>
+        <v>0.8459066569548268</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1.182891157146957</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>10.31938722534913</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H11" t="n">
+        <v>24.00431568101696</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_1_gamma0.64_equalization10.0.jpg</t>
+          <t>10_T_sharpness0.85_contrast1.2_equalization24.0.jpg</t>
         </is>
       </c>
     </row>
@@ -918,7 +922,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -927,15 +931,15 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.160170377278458</v>
+        <v>1.141673590589108</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>23.96757621417999</v>
+        <v>12.26071553026783</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -952,7 +956,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_9_contrast1.2_equalization24.0.jpg</t>
+          <t>11_0_contrast1.1_brightness12.0.jpg</t>
         </is>
       </c>
     </row>
@@ -962,39 +966,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8554812332891883</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>28.66113581769327</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>0.6007339313619179</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>0.7546215348226547</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>equalization</t>
-        </is>
-      </c>
       <c r="H13" t="n">
-        <v>26.79461300035358</v>
+        <v>0.8604120669682147</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_7_gamma0.6_sharpness0.75_equalization27.0.jpg</t>
+          <t>12_8_contrast0.86_brightness29.0_gamma0.86.jpg</t>
         </is>
       </c>
     </row>
@@ -1004,16 +1008,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.7991096858826625</v>
+        <v>0.2016982495905606</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1021,22 +1025,24 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>14.39912489169037</v>
+        <v>27.26449390191136</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>0.8208367992451181</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_7_gamma0.8_brightness14.0_contrast0.82.jpg</t>
+          <t>13_8_sharpness0.2_brightness27.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1046,24 +1052,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8257928091966701</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>0.9532046642787737</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>equalization</t>
-        </is>
-      </c>
       <c r="F15" t="n">
-        <v>13.99854182228003</v>
+        <v>0.6371201595583251</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1080,7 +1086,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_P_gamma0.95_equalization14.0.jpg</t>
+          <t>14_8_sharpness0.83_gamma0.64.jpg</t>
         </is>
       </c>
     </row>
@@ -1090,39 +1096,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>20.24550693031681</v>
+        <v>0.327412903617292</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.4149458392507246</v>
+        <v>0.606794007997622</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.8664250371675406</v>
+        <v>1.164800607638266</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_9_brightness20.0_sharpness0.41_gamma0.87.jpg</t>
+          <t>15_T_sharpness0.33_gamma0.61_contrast1.2.jpg</t>
         </is>
       </c>
     </row>
@@ -1132,16 +1138,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.123689659046724</v>
+        <v>0.8993458393902388</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1149,24 +1155,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.980757250212333</v>
+        <v>1.049413670581853</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>27.31419498078223</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_2_contrast1.1_gamma0.98.jpg</t>
+          <t>16_C_sharpness0.9_gamma1.0_equalization27.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1176,39 +1180,41 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>24.82576938569153</v>
+        <v>0.4354502155161599</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.9605595076297127</v>
+        <v>0.7418617103561318</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>0.2613497810043115</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_0_brightness25.0_contrast0.96_sharpness0.26.jpg</t>
+          <t>17_T_sharpness0.44_gamma0.74.jpg</t>
         </is>
       </c>
     </row>
@@ -1218,7 +1224,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1227,30 +1233,32 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.884698534181752</v>
+        <v>0.3609146900446737</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.005048582143831</v>
+        <v>31.89461329918567</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>3.388028288777953</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_P_sharpness0.88_contrast1.0_brightness3.4.jpg</t>
+          <t>18_9_sharpness0.36_equalization32.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1260,39 +1268,41 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.154058752753634</v>
+        <v>0.3415568690052614</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.6828722293719183</v>
+        <v>0.8986046017049247</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>25.64494514878591</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_S_contrast1.2_sharpness0.68_equalization26.0.jpg</t>
+          <t>19_E_sharpness0.34_gamma0.9.jpg</t>
         </is>
       </c>
     </row>
@@ -1302,39 +1312,41 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.3453665788316135</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>0.590290984658062</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
       <c r="F21" t="n">
-        <v>0.8676964228714688</v>
+        <v>0.7155850994597327</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>31.56164439874403</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_T_gamma0.59_sharpness0.87_equalization32.0.jpg</t>
+          <t>20_C_sharpness0.35_gamma0.72.jpg</t>
         </is>
       </c>
     </row>
@@ -1344,24 +1356,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0.1269221180956571</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>0.8711105318413808</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="F22" t="n">
-        <v>0.9024766334144751</v>
+        <v>0.8431741785666664</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1369,14 +1381,14 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>17.01562146600306</v>
+        <v>22.5648974661499</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_P_contrast0.87_gamma0.9_equalization17.0.jpg</t>
+          <t>21_S_sharpness0.13_contrast0.84_equalization23.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1386,16 +1398,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.6150730232319491</v>
+        <v>3.033493475612266</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1403,22 +1415,24 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.058543710583561</v>
+        <v>0.9076406953578803</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>7.095124425934604</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_7_sharpness0.62_contrast1.1_equalization7.1.jpg</t>
+          <t>22_I_brightness3.0_contrast0.91.jpg</t>
         </is>
       </c>
     </row>
@@ -1428,39 +1442,41 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.02872444915061256</v>
+        <v>1.077750294841596</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.8756450557749405</v>
+        <v>29.99734288450209</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8.660822216154898</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_2_sharpness0.029_gamma0.88_equalization8.7.jpg</t>
+          <t>23_7_gamma1.1_equalization30.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1470,16 +1486,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>10.38755893332215</v>
+        <v>0.7727564687859196</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1487,7 +1503,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.5128190627570804</v>
+        <v>0.5870718586161914</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1500,11 +1516,11 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_T_brightness10.0_sharpness0.51.jpg</t>
+          <t>24_1_gamma0.77_sharpness0.59.jpg</t>
         </is>
       </c>
     </row>
@@ -1514,7 +1530,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1523,30 +1539,30 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.9708078578107087</v>
+        <v>0.8446647769461277</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.5249059629256346</v>
+        <v>22.37547569118527</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>15.06149975403759</v>
+        <v>0.5229062008482981</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_J_contrast0.97_gamma0.52_equalization15.0.jpg</t>
+          <t>25_P_contrast0.84_brightness22.0_sharpness0.52.jpg</t>
         </is>
       </c>
     </row>
@@ -1556,41 +1572,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.9035455865734718</v>
+        <v>27.92857289305121</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>10.07923548278941</v>
+        <v>0.7368234973381831</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>0.1551141429357183</v>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_9_sharpness0.9_equalization10.0.jpg</t>
+          <t>26_B_brightness28.0_gamma0.74_sharpness0.16.jpg</t>
         </is>
       </c>
     </row>
@@ -1600,7 +1614,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1609,30 +1623,32 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.5720299002398592</v>
+        <v>0.3030814504907521</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.8437529292394412</v>
+        <v>26.65287989316372</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>12.52213109379261</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_9_sharpness0.57_contrast0.84_equalization13.0.jpg</t>
+          <t>27_Q_sharpness0.3_brightness27.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1642,41 +1658,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0.7325023393970981</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1.915781616900845</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>0.9071957020278391</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>0.7927370257341602</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H29" t="n">
+        <v>0.836705468484272</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_7_contrast0.91_gamma0.79.jpg</t>
+          <t>28_S_sharpness0.73_brightness1.9_contrast0.84.jpg</t>
         </is>
       </c>
     </row>
@@ -1686,16 +1700,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.9525716205220018</v>
+        <v>0.3491074764097774</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1703,24 +1717,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.9734961808730148</v>
+        <v>1.1409586587966</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6.282730122013549</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_Q_gamma0.95_contrast0.97.jpg</t>
+          <t>29_B_sharpness0.35_contrast1.1_equalization6.3.jpg</t>
         </is>
       </c>
     </row>
@@ -1730,7 +1742,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1739,30 +1751,32 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>13.37876635070316</v>
+        <v>19.43258566912744</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.6500259951895819</v>
+        <v>0.8807987241133312</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>0.8914678783720501</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_T_brightness13.0_sharpness0.65_contrast0.89.jpg</t>
+          <t>30_B_brightness19.0_contrast0.88.jpg</t>
         </is>
       </c>
     </row>
@@ -1772,39 +1786,39 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.3493658212440213</v>
+        <v>12.50453094222302</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.956291982809877</v>
+        <v>0.8940702610228015</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>25.71183860005938</v>
+        <v>0.2646655899196776</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_3_sharpness0.35_contrast0.96_equalization26.0.jpg</t>
+          <t>31_C_brightness13.0_gamma0.89_sharpness0.26.jpg</t>
         </is>
       </c>
     </row>
@@ -1814,7 +1828,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1823,30 +1837,32 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.9876797028233211</v>
+        <v>0.9493350372251566</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4.88367980638817</v>
+        <v>0.7496777682576966</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>0.1444698627347371</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_1_contrast0.99_brightness4.9_sharpness0.14.jpg</t>
+          <t>32_T_contrast0.95_gamma0.75.jpg</t>
         </is>
       </c>
     </row>
@@ -1856,16 +1872,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.8049469842190612</v>
+        <v>0.3958349401901101</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1873,7 +1889,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>7.024037139787835</v>
+        <v>1.355105709248452</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1886,11 +1902,11 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_J_gamma0.8_brightness7.0.jpg</t>
+          <t>33_I_sharpness0.4_brightness1.4.jpg</t>
         </is>
       </c>
     </row>
@@ -1900,39 +1916,41 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>7.101037284508528</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>0.7619381707006356</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
       <c r="F35" t="n">
-        <v>16.08328375836044</v>
+        <v>0.7226634872260516</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>0.5720576204312718</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_8_gamma0.76_brightness16.0_sharpness0.57.jpg</t>
+          <t>34_P_brightness7.1_gamma0.72.jpg</t>
         </is>
       </c>
     </row>
@@ -1942,39 +1960,39 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>23.62941259307085</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>1.025957227461817</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
       <c r="F36" t="n">
-        <v>0.3293675227172657</v>
+        <v>1.170573522151708</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>31.04154351416618</v>
+        <v>0.7878260706280262</v>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_2_contrast1.0_sharpness0.33_equalization31.0.jpg</t>
+          <t>35_I_brightness24.0_contrast1.2_sharpness0.79.jpg</t>
         </is>
       </c>
     </row>
@@ -1984,39 +2002,39 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>11.02144509232317</v>
+        <v>0.1692417549404277</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.9796293974110852</v>
+        <v>1.144818869542245</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.5743974234246243</v>
+        <v>30.77234028562253</v>
       </c>
       <c r="I37" t="n">
         <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_E_brightness11.0_gamma0.98_sharpness0.57.jpg</t>
+          <t>36_0_sharpness0.17_contrast1.1_equalization31.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2026,39 +2044,41 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.8830338683389748</v>
+        <v>0.8969969408612918</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>20.95875587020162</v>
+        <v>0.1870896238919754</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>1.167682902964989</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_8_sharpness0.88_brightness21.0_contrast1.2.jpg</t>
+          <t>37_E_contrast0.9_sharpness0.19.jpg</t>
         </is>
       </c>
     </row>
@@ -2068,24 +2088,24 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.145320930941948</v>
+        <v>21.46100527150339</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>23.99267972308504</v>
+        <v>0.7193911966308916</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2102,7 +2122,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_1_contrast1.1_equalization24.0.jpg</t>
+          <t>38_P_brightness21.0_sharpness0.72.jpg</t>
         </is>
       </c>
     </row>
@@ -2112,39 +2132,39 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.789353692066073</v>
+        <v>0.8900793925856589</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.8359373517389909</v>
+        <v>1.152495011580789</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>17.96938600192175</v>
+        <v>0.6781952945505982</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_B_sharpness0.79_gamma0.84_equalization18.0.jpg</t>
+          <t>39_2_gamma0.89_contrast1.2_sharpness0.68.jpg</t>
         </is>
       </c>
     </row>
@@ -2159,19 +2179,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.4470122543704644</v>
+        <v>0.6955228461515194</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.9481241548153192</v>
+        <v>0.2753188445061092</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2179,14 +2199,14 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>10.79728798266073</v>
+        <v>16.93692136122461</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_3_sharpness0.45_gamma0.95_equalization11.0.jpg</t>
+          <t>40_3_gamma0.7_sharpness0.28_equalization17.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2196,39 +2216,41 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>4.300103741195313</v>
+        <v>0.7407954865380316</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.7276010315211321</v>
+        <v>14.46746405686184</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>0.629441176479971</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_9_brightness4.3_sharpness0.73_gamma0.63.jpg</t>
+          <t>41_8_sharpness0.74_equalization14.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2247,7 +2269,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.5901189656351559</v>
+        <v>0.9422177885431151</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2255,7 +2277,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>31.0047408760782</v>
+        <v>30.9201832047348</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2268,11 +2290,11 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_7_gamma0.59_equalization31.0.jpg</t>
+          <t>42_7_gamma0.94_equalization31.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2282,41 +2304,39 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.9035158150651099</v>
+        <v>0.7870489623160375</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>6.97399135761167</v>
+        <v>14.21240043714074</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>0.5747206241393464</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_1_contrast0.9_equalization7.0.jpg</t>
+          <t>43_2_sharpness0.79_brightness14.0_gamma0.57.jpg</t>
         </is>
       </c>
     </row>
@@ -2326,39 +2346,39 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.7431988524914099</v>
+        <v>0.04093112399516241</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.965515899674515</v>
+        <v>18.61466983713961</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>5.851537053814273</v>
+        <v>0.8252479735859354</v>
       </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_2_gamma0.74_sharpness0.97_equalization5.9.jpg</t>
+          <t>44_I_sharpness0.041_brightness19.0_contrast0.83.jpg</t>
         </is>
       </c>
     </row>
@@ -2368,39 +2388,39 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.6066593639606312</v>
+        <v>1.122072197836639</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.164379279845594</v>
+        <v>0.4486077353094086</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>11.31736453095881</v>
+        <v>4.138201082479595</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_1_gamma0.61_contrast1.2_brightness11.0.jpg</t>
+          <t>45_J_contrast1.1_sharpness0.45_equalization4.1.jpg</t>
         </is>
       </c>
     </row>
@@ -2410,41 +2430,39 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2.311583958266118</v>
+        <v>0.9972842670191603</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.7922025134717372</v>
+        <v>0.8280653739381576</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>0.6840764515225312</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_P_brightness2.3_sharpness0.79.jpg</t>
+          <t>46_8_sharpness1.0_contrast0.83_gamma0.68.jpg</t>
         </is>
       </c>
     </row>
@@ -2454,39 +2472,39 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.7776298946978432</v>
+        <v>0.8299526601277903</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.034855949513779</v>
+        <v>0.9803256938948648</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>22.08040142142569</v>
+        <v>16.38010006590644</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_B_sharpness0.78_contrast1.0_equalization22.0.jpg</t>
+          <t>47_8_contrast0.83_gamma0.98_brightness16.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2514,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2505,7 +2523,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.8975328363672559</v>
+        <v>1.103292710464463</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2513,7 +2531,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.8207307519297657</v>
+        <v>0.9918483480830199</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2521,14 +2539,14 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>30.44651291334643</v>
+        <v>21.11408641852518</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_0_contrast0.9_gamma0.82_equalization30.0.jpg</t>
+          <t>48_T_contrast1.1_gamma0.99_equalization21.0.jpg</t>
         </is>
       </c>
     </row>
